--- a/legislator/property/output/normal/邱文彥_2012-04-30_財產申報表_tmpa1171.xlsx
+++ b/legislator/property/output/normal/邱文彥_2012-04-30_財產申報表_tmpa1171.xlsx
@@ -20,9 +20,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="114">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="130">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>屏東縣内埔鄉新東勢段05570000地號</t>
+  </si>
+  <si>
+    <t>屏東縣内埔鄉早角段04700000地號</t>
+  </si>
+  <si>
+    <t>屏東縣内埔鄉早角段04710000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段03490000地號</t>
+  </si>
+  <si>
+    <t>新北市永和區福和段00790000地號</t>
+  </si>
+  <si>
+    <t>8分之1</t>
+  </si>
+  <si>
+    <t>48分之6</t>
+  </si>
+  <si>
+    <t>10000分之28</t>
+  </si>
+  <si>
+    <t>100000分之10</t>
+  </si>
+  <si>
+    <t>邱文彥</t>
+  </si>
+  <si>
+    <t>黃淑芬</t>
+  </si>
+  <si>
+    <t>85年07月31闩</t>
+  </si>
+  <si>
+    <t>85年07月31日</t>
+  </si>
+  <si>
+    <t>85年07月31曰</t>
+  </si>
+  <si>
+    <t>87年10月23日</t>
+  </si>
+  <si>
+    <t>98年06月25日</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年旱地目）</t>
+  </si>
+  <si>
+    <t>(超過五年墓地目）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>750000(含建物建地目停車位(已信託））</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmpa1171</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,103 +163,31 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>屏東縣内埔鄉新東勢段 0557-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣内埔鄉早角段0470-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣内埔鄉早角段0471 -0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段 0349-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區福和段0079-0000 地號</t>
-  </si>
-  <si>
-    <t>8分之1</t>
-  </si>
-  <si>
-    <t>48分之6</t>
-  </si>
-  <si>
-    <t>10000分之 28</t>
-  </si>
-  <si>
-    <t>100000 分 之10</t>
-  </si>
-  <si>
-    <t>邱文彥</t>
-  </si>
-  <si>
-    <t>黃淑芬</t>
-  </si>
-  <si>
-    <t>85年07月 31闩</t>
-  </si>
-  <si>
-    <t>85年07月 31日</t>
-  </si>
-  <si>
-    <t>85年07月 31曰</t>
-  </si>
-  <si>
-    <t>87年10月 23日</t>
-  </si>
-  <si>
-    <t>98年06月 25日</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年，旱 地目）</t>
-  </si>
-  <si>
-    <t>(超過五年’墓 地目）</t>
-  </si>
-  <si>
-    <t>(超過五年,墓 地目）</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>750，000(含建 物，建地目、停 車位(已信 託））</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市永和區福和段06146-000 建號</t>
-  </si>
-  <si>
-    <t>新北市永和區福和段06074-000 建號</t>
+    <t>新北市永和區福和段06146000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區福和段06074000建號</t>
   </si>
   <si>
     <t>屏東縣內埔鄉嘉應路</t>
   </si>
   <si>
-    <t>臺北市大安區龍泉段一小段 05653-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段 05715-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段 05721-000 建號</t>
-  </si>
-  <si>
-    <t>新北市永和區福和段05986-000 建號</t>
-  </si>
-  <si>
-    <t>100000 分 之663</t>
-  </si>
-  <si>
-    <t>100000 分 之204</t>
+    <t>臺北市大安區龍泉段一小段05653000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段05715000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段05721000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區福和段05986000建號</t>
+  </si>
+  <si>
+    <t>100000分之663</t>
+  </si>
+  <si>
+    <t>100000分之204</t>
   </si>
   <si>
     <t>2分之1</t>
@@ -148,34 +196,34 @@
     <t>全部</t>
   </si>
   <si>
-    <t>10000分之 12</t>
-  </si>
-  <si>
-    <t>10000分之 540</t>
+    <t>10000分之12</t>
+  </si>
+  <si>
+    <t>10000分之540</t>
   </si>
   <si>
     <t>125分之1</t>
   </si>
   <si>
-    <t>100000 分 之 25427</t>
-  </si>
-  <si>
-    <t>92年10月 16闩</t>
-  </si>
-  <si>
-    <t>92年10月 16日</t>
-  </si>
-  <si>
-    <t>86年04月 10日</t>
-  </si>
-  <si>
-    <t>(超過五年，平 房屋）</t>
-  </si>
-  <si>
-    <t>750’000(含土 地，停車位(已 信託)）</t>
-  </si>
-  <si>
-    <t>750’000(含土 地,共用部分-已信託）</t>
+    <t>100000分之25427</t>
+  </si>
+  <si>
+    <t>92年10月16闩</t>
+  </si>
+  <si>
+    <t>92年10月16日</t>
+  </si>
+  <si>
+    <t>86年04月10日</t>
+  </si>
+  <si>
+    <t>(超過五年平房屋）</t>
+  </si>
+  <si>
+    <t>750000(含土地停車位(已信託)）</t>
+  </si>
+  <si>
+    <t>750000(含土地共用部分已信託）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -211,13 +259,13 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>台北富邦商業銀行松江分 行</t>
-  </si>
-  <si>
-    <t>基隆第一信用合作社八斗 子分社</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行古亭分 行</t>
+    <t>台北富邦商業銀行松江分行</t>
+  </si>
+  <si>
+    <t>基隆第一信用合作社八斗子分社</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行古亭分行</t>
   </si>
   <si>
     <t>臺灣銀行武昌分行</t>
@@ -226,31 +274,31 @@
     <t>臺灣銀行和平分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行雙和分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司永 和福和郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司高 雄西子灣郵局</t>
+    <t>中國信託商業銀行雙和分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司永和福和郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司高雄西子灣郵局</t>
   </si>
   <si>
     <t>彰化商業銀行鹽埕分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行古亭分 行</t>
+    <t>國泰世華商業銀行古亭分行</t>
   </si>
   <si>
     <t>安泰商業銀行中和分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行大稻埕 分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行復興分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台 北大安郵局</t>
+    <t>合作金庫商業銀行大稻埕分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行復興分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北大安郵局</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -268,7 +316,7 @@
     <t>美金</t>
   </si>
   <si>
-    <t>72，727</t>
+    <t>72727</t>
   </si>
   <si>
     <t>名稱</t>
@@ -280,49 +328,49 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>聯博美國收益基 金AT</t>
-  </si>
-  <si>
-    <t>霸菱全球資源基 金美配</t>
-  </si>
-  <si>
-    <t>GAM中華股票基 金A</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業 基金</t>
-  </si>
-  <si>
-    <t>貝萊德拉丁美洲 基金</t>
-  </si>
-  <si>
-    <t>貝萊德世界黃金 基金</t>
-  </si>
-  <si>
-    <t>法巴全球金融股 票基金</t>
+    <t>聯博美國收益基金AT</t>
+  </si>
+  <si>
+    <t>霸菱全球資源基金美配</t>
+  </si>
+  <si>
+    <t>GAM中華股票基金A</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業基金</t>
+  </si>
+  <si>
+    <t>貝萊德拉丁美洲基金</t>
+  </si>
+  <si>
+    <t>貝萊德世界黃金基金</t>
+  </si>
+  <si>
+    <t>法巴全球金融股票基金</t>
   </si>
   <si>
     <t>富坦中國家</t>
   </si>
   <si>
-    <t>台北富邦商業 銀行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業 銀行</t>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行</t>
   </si>
   <si>
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/件</t>
+    <t>項件</t>
   </si>
   <si>
     <t>價額</t>
   </si>
   <si>
-    <t>晉元康五年「五谷豐登」款越 窯穀倉罐</t>
-  </si>
-  <si>
-    <t>宋/金兔毫紋黑釉碗</t>
+    <t>晉元康五年「五谷豐登」款越窯穀倉罐</t>
+  </si>
+  <si>
+    <t>宋金兔毫紋黑釉碗</t>
   </si>
   <si>
     <t>家傳占董民藝品</t>
@@ -352,16 +400,16 @@
     <t>南山人壽</t>
   </si>
   <si>
-    <t>富邦人壽靈活理財變額保險 乙型</t>
+    <t>富邦人壽靈活理財變額保險乙型</t>
   </si>
   <si>
     <t>南山新增值分红養老壽險</t>
   </si>
   <si>
-    <t>保險期間終身，保險費月繳， 金額5,000元。</t>
-  </si>
-  <si>
-    <t>保險期間25年,保險費年繳， 金額53,500元。</t>
+    <t>保險期間終身保險費月繳金額5000元。</t>
+  </si>
+  <si>
+    <t>保險期間25年保險費年繳金額53500元。</t>
   </si>
 </sst>
 </file>
@@ -720,13 +768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,135 +796,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>3215</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>220.16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>261.36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1561</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>2183.56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -894,25 +1068,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -920,25 +1094,25 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>12969.44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -946,25 +1120,25 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>12969.44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -972,25 +1146,25 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2">
         <v>42.95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -998,25 +1172,25 @@
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2">
         <v>16.66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1024,25 +1198,25 @@
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2">
         <v>2712.14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1050,25 +1224,25 @@
         <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2">
         <v>100.7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1076,25 +1250,25 @@
         <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2">
         <v>7.04</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1102,25 +1276,25 @@
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2">
         <v>12969.44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1138,22 +1312,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1161,19 +1335,19 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2">
         <v>1598</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>650000</v>
@@ -1184,22 +1358,22 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2">
         <v>1769</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1217,19 +1391,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1237,16 +1411,16 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2">
         <v>7922</v>
@@ -1257,16 +1431,16 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
         <v>519</v>
@@ -1277,16 +1451,16 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2">
         <v>1264</v>
@@ -1297,19 +1471,19 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1317,16 +1491,16 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
         <v>55657</v>
@@ -1337,16 +1511,16 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>132</v>
@@ -1357,16 +1531,16 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2">
         <v>18765</v>
@@ -1377,16 +1551,16 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2">
         <v>291119</v>
@@ -1397,16 +1571,16 @@
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2">
         <v>358226</v>
@@ -1417,16 +1591,16 @@
         <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2">
         <v>70</v>
@@ -1437,16 +1611,16 @@
         <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2">
         <v>145</v>
@@ -1457,16 +1631,16 @@
         <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -1477,16 +1651,16 @@
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -1497,16 +1671,16 @@
         <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2">
         <v>63968</v>
@@ -1517,16 +1691,16 @@
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2">
         <v>611033</v>
@@ -1537,16 +1711,16 @@
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2">
         <v>68249</v>
@@ -1557,16 +1731,16 @@
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2">
         <v>879.46</v>
@@ -1577,16 +1751,16 @@
         <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2">
         <v>6834</v>
@@ -1607,19 +1781,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1627,13 +1801,13 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>246.712</v>
@@ -1647,13 +1821,13 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2">
         <v>349.336</v>
@@ -1667,13 +1841,13 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E4" s="2">
         <v>467.52</v>
@@ -1687,13 +1861,13 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E5" s="2">
         <v>67.11</v>
@@ -1707,13 +1881,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2">
         <v>53.07</v>
@@ -1727,13 +1901,13 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2">
         <v>37.69</v>
@@ -1747,13 +1921,13 @@
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2">
         <v>6.755</v>
@@ -1767,13 +1941,13 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E9" s="2">
         <v>520.86</v>
@@ -1797,16 +1971,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1814,13 +1988,13 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
         <v>250000</v>
@@ -1831,13 +2005,13 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2">
         <v>350000</v>
@@ -1848,16 +2022,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1875,16 +2049,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1892,16 +2066,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1909,16 +2083,16 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱文彥_2012-04-30_財產申報表_tmpa1171.xlsx
+++ b/legislator/property/output/normal/邱文彥_2012-04-30_財產申報表_tmpa1171.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>屏東縣内埔鄉新東勢段05570000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>屏東縣内埔鄉早角段04700000地號</t>
@@ -79,9 +82,6 @@
     <t>新北市永和區福和段00790000地號</t>
   </si>
   <si>
-    <t>8分之1</t>
-  </si>
-  <si>
     <t>48分之6</t>
   </si>
   <si>
@@ -97,9 +97,6 @@
     <t>黃淑芬</t>
   </si>
   <si>
-    <t>85年07月31闩</t>
-  </si>
-  <si>
     <t>85年07月31日</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>(超過五年旱地目）</t>
-  </si>
-  <si>
     <t>(超過五年墓地目）</t>
   </si>
   <si>
@@ -142,30 +136,15 @@
     <t>tmpa1171</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>新北市永和區福和段06146000建號</t>
   </si>
   <si>
+    <t>100000分之663</t>
+  </si>
+  <si>
+    <t>92年10月16闩</t>
+  </si>
+  <si>
     <t>新北市永和區福和段06074000建號</t>
   </si>
   <si>
@@ -184,9 +163,6 @@
     <t>新北市永和區福和段05986000建號</t>
   </si>
   <si>
-    <t>100000分之663</t>
-  </si>
-  <si>
     <t>100000分之204</t>
   </si>
   <si>
@@ -208,9 +184,6 @@
     <t>100000分之25427</t>
   </si>
   <si>
-    <t>92年10月16闩</t>
-  </si>
-  <si>
     <t>92年10月16日</t>
   </si>
   <si>
@@ -226,42 +199,27 @@
     <t>750000(含土地共用部分已信託）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>日產Livina</t>
   </si>
   <si>
+    <t>96年12月</t>
+  </si>
+  <si>
     <t>曰產Sentra</t>
   </si>
   <si>
-    <t>96年12月</t>
-  </si>
-  <si>
     <t>91年8月</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台北富邦商業銀行松江分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>基隆第一信用合作社八斗子分社</t>
   </si>
   <si>
@@ -301,36 +259,24 @@
     <t>中華郵政股份有限公司台北大安郵局</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
     <t>其他存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>72727</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
     <t>聯博美國收益基金AT</t>
   </si>
   <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
     <t>霸菱全球資源基金美配</t>
   </si>
   <si>
@@ -352,21 +298,9 @@
     <t>富坦中國家</t>
   </si>
   <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
     <t>臺灣中小企業銀行</t>
   </si>
   <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>晉元康五年「五谷豐登」款越窯穀倉罐</t>
   </si>
   <si>
@@ -382,31 +316,19 @@
     <t>無法估價</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>富邦人壽靈活理財變額保險乙型</t>
+  </si>
+  <si>
+    <t>保險期間終身保險費月繳金額5000元。</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
-    <t>富邦人壽靈活理財變額保險乙型</t>
-  </si>
-  <si>
     <t>南山新增值分红養老壽險</t>
-  </si>
-  <si>
-    <t>保險期間終身保險費月繳金額5000元。</t>
   </si>
   <si>
     <t>保險期間25年保險費年繳金額53500元。</t>
@@ -768,13 +690,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,19 +739,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>3215</v>
+        <v>220.16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -838,19 +766,19 @@
         <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>23</v>
@@ -859,21 +787,27 @@
         <v>1743</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>220.16</v>
+        <v>261.36</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -885,19 +819,19 @@
         <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>23</v>
@@ -906,27 +840,33 @@
         <v>1743</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>32.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>261.36</v>
+        <v>1561</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>27</v>
@@ -935,16 +875,16 @@
         <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>23</v>
@@ -953,45 +893,51 @@
         <v>1743</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0028</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4.3708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1561</v>
+        <v>2183.56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>23</v>
@@ -1000,57 +946,16 @@
         <v>1743</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2183.56</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1743</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="2">
-        <v>18</v>
+      <c r="P5" s="2">
+        <v>0.0001</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.218356</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +965,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1068,233 +973,207 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1">
+        <v>12969.44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>12969.44</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42.95</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="2">
-        <v>12969.44</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16.66</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="2">
-        <v>42.95</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2712.14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2">
-        <v>16.66</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100.7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="2">
-        <v>2712.14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.04</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="2">
-        <v>100.7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12969.44</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="2">
-        <v>7.04</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2">
-        <v>12969.44</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1312,68 +1191,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1598</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="G1" s="1">
+        <v>650000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2">
-        <v>1598</v>
+        <v>1769</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2">
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1769</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1391,253 +1247,253 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>23</v>
+      </c>
+      <c r="F1" s="1">
+        <v>7922</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="2">
-        <v>7922</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2">
-        <v>519</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2">
-        <v>1264</v>
+      <c r="F4" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>98</v>
+      <c r="F5" s="2">
+        <v>55657</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="2">
-        <v>55657</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2">
-        <v>132</v>
+        <v>18765</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="2">
-        <v>18765</v>
+        <v>291119</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
+        <v>66</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="2">
-        <v>291119</v>
+        <v>358226</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="2">
-        <v>358226</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="2">
-        <v>70</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="2">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1648,121 +1504,101 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>63968</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="2">
-        <v>63968</v>
+        <v>611033</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="2">
-        <v>611033</v>
+        <v>68249</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="2">
-        <v>68249</v>
+        <v>879.46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="2">
-        <v>879.46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>75</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="2">
         <v>6834</v>
       </c>
     </row>
@@ -1773,7 +1609,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1781,178 +1617,158 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="E1" s="1">
+        <v>246.712</v>
+      </c>
+      <c r="F1" s="1">
+        <v>65724</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2">
-        <v>246.712</v>
+        <v>349.336</v>
       </c>
       <c r="F2" s="2">
-        <v>65724</v>
+        <v>258157</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
-        <v>349.336</v>
+        <v>467.52</v>
       </c>
       <c r="F3" s="2">
-        <v>258157</v>
+        <v>159176</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
-        <v>467.52</v>
+        <v>67.11</v>
       </c>
       <c r="F4" s="2">
-        <v>159176</v>
+        <v>124877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2">
-        <v>67.11</v>
+        <v>53.07</v>
       </c>
       <c r="F5" s="2">
-        <v>124877</v>
+        <v>122613</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2">
-        <v>53.07</v>
+        <v>37.69</v>
       </c>
       <c r="F6" s="2">
-        <v>122613</v>
+        <v>66395</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2">
-        <v>37.69</v>
+        <v>6.755</v>
       </c>
       <c r="F7" s="2">
-        <v>66395</v>
+        <v>49866</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2">
-        <v>6.755</v>
+        <v>520.86</v>
       </c>
       <c r="F8" s="2">
-        <v>49866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>100</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="2">
-        <v>520.86</v>
-      </c>
-      <c r="F9" s="2">
         <v>422285</v>
       </c>
     </row>
@@ -1962,84 +1778,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>110</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>111</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2049,50 +1787,94 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>23</v>
+      </c>
+      <c r="E1" s="1">
+        <v>250000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>94</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>128</v>
+      <c r="E2" s="2">
+        <v>350000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
+        <v>111</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
         <v>117</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>129</v>
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱文彥_2012-04-30_財產申報表_tmpa1171.xlsx
+++ b/legislator/property/output/normal/邱文彥_2012-04-30_財產申報表_tmpa1171.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>屏東縣内埔鄉新東勢段05570000地號</t>
+  </si>
+  <si>
     <t>屏東縣内埔鄉早角段04700000地號</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>新北市永和區福和段00790000地號</t>
   </si>
   <si>
+    <t>8分之1</t>
+  </si>
+  <si>
     <t>48分之6</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>黃淑芬</t>
   </si>
   <si>
+    <t>85年07月31闩</t>
+  </si>
+  <si>
     <t>85年07月31日</t>
   </si>
   <si>
@@ -115,6 +124,9 @@
     <t>買賣</t>
   </si>
   <si>
+    <t>(超過五年旱地目）</t>
+  </si>
+  <si>
     <t>(超過五年墓地目）</t>
   </si>
   <si>
@@ -139,49 +151,49 @@
     <t>新北市永和區福和段06146000建號</t>
   </si>
   <si>
+    <t>新北市永和區福和段06074000建號</t>
+  </si>
+  <si>
+    <t>屏東縣內埔鄉嘉應路</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段05653000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段05715000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段05721000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區福和段05986000建號</t>
+  </si>
+  <si>
     <t>100000分之663</t>
   </si>
   <si>
+    <t>100000分之204</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之12</t>
+  </si>
+  <si>
+    <t>10000分之540</t>
+  </si>
+  <si>
+    <t>125分之1</t>
+  </si>
+  <si>
+    <t>100000分之25427</t>
+  </si>
+  <si>
     <t>92年10月16闩</t>
-  </si>
-  <si>
-    <t>新北市永和區福和段06074000建號</t>
-  </si>
-  <si>
-    <t>屏東縣內埔鄉嘉應路</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段05653000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段05715000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段05721000建號</t>
-  </si>
-  <si>
-    <t>新北市永和區福和段05986000建號</t>
-  </si>
-  <si>
-    <t>100000分之204</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之12</t>
-  </si>
-  <si>
-    <t>10000分之540</t>
-  </si>
-  <si>
-    <t>125分之1</t>
-  </si>
-  <si>
-    <t>100000分之25427</t>
   </si>
   <si>
     <t>92年10月16日</t>
@@ -690,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,213 +760,266 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>220.16</v>
+        <v>3215</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2">
         <v>1743</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.125</v>
       </c>
       <c r="Q2" s="2">
-        <v>27.52</v>
+        <v>401.875</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>261.36</v>
+        <v>220.16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2">
         <v>1743</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.125</v>
       </c>
       <c r="Q3" s="2">
-        <v>32.67</v>
+        <v>27.52</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1561</v>
+        <v>261.36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2">
         <v>1743</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0028</v>
+        <v>0.125</v>
       </c>
       <c r="Q4" s="2">
-        <v>4.3708</v>
+        <v>32.67</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>2183.56</v>
+        <v>1561</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2">
         <v>1743</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0028</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>4.3708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2183.56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="2">
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2">
         <v>18</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P6" s="2">
         <v>0.0001</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q6" s="2">
         <v>0.218356</v>
       </c>
     </row>
@@ -965,215 +1030,484 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1">
-        <v>12969.44</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>24</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>12969.44</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.00663</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>85.9873872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12969.44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00204</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>26.4576576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2">
+        <v>42.95</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="2">
+        <v>25</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>21.475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16.66</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2">
+        <v>27</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>16.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2712.14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2">
+        <v>28</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0012</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3.254568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C7" s="2">
+        <v>100.7</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="2">
+        <v>30</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.054</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>5.4378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.04</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="2">
+        <v>31</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.008</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.05632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2">
-        <v>42.95</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="C9" s="2">
+        <v>12969.44</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2">
-        <v>16.66</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2712.14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2">
-        <v>100.7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2">
-        <v>7.04</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="2">
-        <v>12969.44</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>58</v>
+      <c r="P9" s="2">
+        <v>0.25427</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3297.7395088</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1191,19 +1525,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1">
         <v>1598</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1">
         <v>650000</v>
@@ -1211,25 +1545,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1598</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2">
         <v>1769</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1239,7 +1596,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1247,16 +1604,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1">
         <v>7922</v>
@@ -1264,239 +1621,239 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
-        <v>519</v>
+        <v>7922</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
-        <v>1264</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1264</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2">
-        <v>55657</v>
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2">
-        <v>132</v>
+        <v>55657</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2">
-        <v>18765</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2">
-        <v>291119</v>
+        <v>18765</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2">
-        <v>358226</v>
+        <v>291119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2">
-        <v>70</v>
+        <v>358226</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2">
-        <v>145</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
+        <v>68</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -1504,101 +1861,121 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2">
-        <v>63968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2">
-        <v>611033</v>
+        <v>63968</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2">
-        <v>68249</v>
+        <v>611033</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2">
-        <v>879.46</v>
+        <v>68249</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
+        <v>74</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="2">
+        <v>879.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
         <v>75</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="B19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="2">
         <v>6834</v>
       </c>
     </row>
@@ -1609,7 +1986,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1617,13 +1994,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1">
         <v>246.712</v>
@@ -1634,141 +2011,161 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
-        <v>349.336</v>
+        <v>246.712</v>
       </c>
       <c r="F2" s="2">
-        <v>258157</v>
+        <v>65724</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
-        <v>467.52</v>
+        <v>349.336</v>
       </c>
       <c r="F3" s="2">
-        <v>159176</v>
+        <v>258157</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
-        <v>67.11</v>
+        <v>467.52</v>
       </c>
       <c r="F4" s="2">
-        <v>124877</v>
+        <v>159176</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" s="2">
-        <v>53.07</v>
+        <v>67.11</v>
       </c>
       <c r="F5" s="2">
-        <v>122613</v>
+        <v>124877</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2">
-        <v>37.69</v>
+        <v>53.07</v>
       </c>
       <c r="F6" s="2">
-        <v>66395</v>
+        <v>122613</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2">
-        <v>6.755</v>
+        <v>37.69</v>
       </c>
       <c r="F7" s="2">
-        <v>49866</v>
+        <v>66395</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
+        <v>99</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6.755</v>
+      </c>
+      <c r="F8" s="2">
+        <v>49866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>100</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="B9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="2">
         <v>520.86</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <v>422285</v>
       </c>
     </row>
@@ -1778,6 +2175,84 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>110</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1787,94 +2262,50 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1">
-        <v>250000</v>
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2">
-        <v>350000</v>
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>117</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱文彥_2012-04-30_財產申報表_tmpa1171.xlsx
+++ b/legislator/property/output/normal/邱文彥_2012-04-30_財產申報表_tmpa1171.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="109">
   <si>
     <t>name</t>
   </si>
@@ -211,13 +211,16 @@
     <t>750000(含土地共用部分已信託）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>日產Livina</t>
   </si>
   <si>
+    <t>曰產Sentra</t>
+  </si>
+  <si>
     <t>96年12月</t>
-  </si>
-  <si>
-    <t>曰產Sentra</t>
   </si>
   <si>
     <t>91年8月</t>
@@ -1517,38 +1520,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1">
-        <v>1598</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1">
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>1598</v>
@@ -1557,7 +1581,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>33</v>
@@ -1565,8 +1589,29 @@
       <c r="G2" s="2">
         <v>650000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1743</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>43</v>
       </c>
@@ -1580,13 +1625,34 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1743</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1604,13 +1670,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -1624,13 +1690,13 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1644,13 +1710,13 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1664,13 +1730,13 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1684,19 +1750,19 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1704,13 +1770,13 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1724,13 +1790,13 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -1744,13 +1810,13 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -1764,13 +1830,13 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -1784,13 +1850,13 @@
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
@@ -1804,13 +1870,13 @@
         <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
@@ -1824,13 +1890,13 @@
         <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
@@ -1844,13 +1910,13 @@
         <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -1864,13 +1930,13 @@
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -1884,13 +1950,13 @@
         <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -1904,13 +1970,13 @@
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -1924,13 +1990,13 @@
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -1944,13 +2010,13 @@
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -1964,13 +2030,13 @@
         <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
@@ -1994,13 +2060,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1">
         <v>246.712</v>
@@ -2014,13 +2080,13 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
         <v>246.712</v>
@@ -2034,13 +2100,13 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2">
         <v>349.336</v>
@@ -2054,13 +2120,13 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2">
         <v>467.52</v>
@@ -2074,13 +2140,13 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2">
         <v>67.11</v>
@@ -2094,13 +2160,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
         <v>53.07</v>
@@ -2114,13 +2180,13 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2">
         <v>37.69</v>
@@ -2134,13 +2200,13 @@
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2">
         <v>6.755</v>
@@ -2154,13 +2220,13 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2">
         <v>520.86</v>
@@ -2184,7 +2250,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -2201,7 +2267,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2218,7 +2284,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2235,16 +2301,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2262,16 +2328,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2279,16 +2345,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2296,16 +2362,16 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱文彥_2012-04-30_財產申報表_tmpa1171.xlsx
+++ b/legislator/property/output/normal/邱文彥_2012-04-30_財產申報表_tmpa1171.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -211,6 +211,9 @@
     <t>750000(含土地共用部分已信託）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -224,6 +227,9 @@
   </si>
   <si>
     <t>91年8月</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台北富邦商業銀行松江分行</t>
@@ -1115,7 +1121,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>39</v>
@@ -1168,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>39</v>
@@ -1221,7 +1227,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>39</v>
@@ -1274,7 +1280,7 @@
         <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>39</v>
@@ -1327,7 +1333,7 @@
         <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>39</v>
@@ -1380,7 +1386,7 @@
         <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>39</v>
@@ -1433,7 +1439,7 @@
         <v>61</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>39</v>
@@ -1486,7 +1492,7 @@
         <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>39</v>
@@ -1531,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1572,7 +1578,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2">
         <v>1598</v>
@@ -1581,7 +1587,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>33</v>
@@ -1590,7 +1596,7 @@
         <v>650000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>39</v>
@@ -1616,7 +1622,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2">
         <v>1769</v>
@@ -1625,7 +1631,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>33</v>
@@ -1634,7 +1640,7 @@
         <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>39</v>
@@ -1670,13 +1676,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -1690,13 +1696,13 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1710,13 +1716,13 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1730,13 +1736,13 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1750,19 +1756,19 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1770,13 +1776,13 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1790,13 +1796,13 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -1810,13 +1816,13 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -1830,13 +1836,13 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -1850,13 +1856,13 @@
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
@@ -1870,13 +1876,13 @@
         <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
@@ -1890,13 +1896,13 @@
         <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
@@ -1910,13 +1916,13 @@
         <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -1930,13 +1936,13 @@
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -1950,13 +1956,13 @@
         <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -1970,13 +1976,13 @@
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -1990,13 +1996,13 @@
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -2010,13 +2016,13 @@
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -2030,13 +2036,13 @@
         <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
@@ -2060,13 +2066,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1">
         <v>246.712</v>
@@ -2080,13 +2086,13 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>246.712</v>
@@ -2100,13 +2106,13 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>349.336</v>
@@ -2120,13 +2126,13 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2">
         <v>467.52</v>
@@ -2140,13 +2146,13 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2">
         <v>67.11</v>
@@ -2160,13 +2166,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2">
         <v>53.07</v>
@@ -2180,13 +2186,13 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2">
         <v>37.69</v>
@@ -2200,13 +2206,13 @@
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2">
         <v>6.755</v>
@@ -2220,13 +2226,13 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E9" s="2">
         <v>520.86</v>
@@ -2250,7 +2256,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -2267,7 +2273,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2284,7 +2290,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2301,16 +2307,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2328,16 +2334,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2345,16 +2351,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2362,16 +2368,16 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱文彥_2012-04-30_財產申報表_tmpa1171.xlsx
+++ b/legislator/property/output/normal/邱文彥_2012-04-30_財產申報表_tmpa1171.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -232,64 +232,73 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行松江分行</t>
   </si>
   <si>
+    <t>基隆第一信用合作社八斗子分社</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行武昌分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行和平分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行雙和分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司永和福和郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司高雄西子灣郵局</t>
+  </si>
+  <si>
+    <t>彰化商業銀行鹽埕分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行中和分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行大稻埕分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行復興分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北大安郵局</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>其他存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>基隆第一信用合作社八斗子分社</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行古亭分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行武昌分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行和平分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行雙和分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司永和福和郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司高雄西子灣郵局</t>
-  </si>
-  <si>
-    <t>彰化商業銀行鹽埕分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行古亭分行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行中和分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行大稻埕分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行復興分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台北大安郵局</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>其他存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>72727</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>聯博美國收益基金AT</t>
@@ -1668,13 +1677,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
@@ -1685,24 +1694,45 @@
         <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1">
-        <v>7922</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1710,19 +1740,40 @@
       <c r="F2" s="2">
         <v>7922</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1730,19 +1781,40 @@
       <c r="F3" s="2">
         <v>519</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1750,39 +1822,81 @@
       <c r="F4" s="2">
         <v>1264</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="2">
+        <v>72727</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1790,19 +1904,40 @@
       <c r="F6" s="2">
         <v>55657</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -1810,19 +1945,40 @@
       <c r="F7" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -1830,19 +1986,40 @@
       <c r="F8" s="2">
         <v>18765</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -1850,19 +2027,40 @@
       <c r="F9" s="2">
         <v>291119</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
@@ -1870,19 +2068,40 @@
       <c r="F10" s="2">
         <v>358226</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
@@ -1890,19 +2109,40 @@
       <c r="F11" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
@@ -1910,19 +2150,40 @@
       <c r="F12" s="2">
         <v>145</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -1930,19 +2191,40 @@
       <c r="F13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -1950,19 +2232,40 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -1970,19 +2273,40 @@
       <c r="F15" s="2">
         <v>63968</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -1990,19 +2314,40 @@
       <c r="F16" s="2">
         <v>611033</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -2010,19 +2355,40 @@
       <c r="F17" s="2">
         <v>68249</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -2030,25 +2396,67 @@
       <c r="F18" s="2">
         <v>879.46</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="2">
         <v>6834</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2066,13 +2474,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1">
         <v>246.712</v>
@@ -2086,13 +2494,13 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2">
         <v>246.712</v>
@@ -2106,13 +2514,13 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2">
         <v>349.336</v>
@@ -2126,13 +2534,13 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2">
         <v>467.52</v>
@@ -2146,13 +2554,13 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2">
         <v>67.11</v>
@@ -2166,13 +2574,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2">
         <v>53.07</v>
@@ -2186,13 +2594,13 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2">
         <v>37.69</v>
@@ -2206,13 +2614,13 @@
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2">
         <v>6.755</v>
@@ -2226,13 +2634,13 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E9" s="2">
         <v>520.86</v>
@@ -2256,7 +2664,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -2273,7 +2681,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2290,7 +2698,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2307,16 +2715,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2334,16 +2742,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2351,16 +2759,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2368,16 +2776,16 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱文彥_2012-04-30_財產申報表_tmpa1171.xlsx
+++ b/legislator/property/output/normal/邱文彥_2012-04-30_財產申報表_tmpa1171.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -301,36 +301,51 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
     <t>聯博美國收益基金AT</t>
   </si>
   <si>
+    <t>霸菱全球資源基金美配</t>
+  </si>
+  <si>
+    <t>GAM中華股票基金A</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業基金</t>
+  </si>
+  <si>
+    <t>貝萊德拉丁美洲基金</t>
+  </si>
+  <si>
+    <t>貝萊德世界黃金基金</t>
+  </si>
+  <si>
+    <t>法巴全球金融股票基金</t>
+  </si>
+  <si>
+    <t>富坦中國家</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行</t>
   </si>
   <si>
-    <t>霸菱全球資源基金美配</t>
-  </si>
-  <si>
-    <t>GAM中華股票基金A</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業基金</t>
-  </si>
-  <si>
-    <t>貝萊德拉丁美洲基金</t>
-  </si>
-  <si>
-    <t>貝萊德世界黃金基金</t>
-  </si>
-  <si>
-    <t>法巴全球金融股票基金</t>
-  </si>
-  <si>
-    <t>富坦中國家</t>
-  </si>
-  <si>
     <t>臺灣中小企業銀行</t>
   </si>
   <si>
+    <t>無資料</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
     <t>晉元康五年「五谷豐登」款越窯穀倉罐</t>
   </si>
   <si>
@@ -344,6 +359,9 @@
   </si>
   <si>
     <t>無法估價</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -2466,187 +2484,430 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="1">
-        <v>246.712</v>
-      </c>
-      <c r="F1" s="1">
-        <v>65724</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2">
         <v>246.712</v>
       </c>
       <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="2">
         <v>65724</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="I2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2">
         <v>349.336</v>
       </c>
       <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="2">
         <v>258157</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="I3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2">
         <v>467.52</v>
       </c>
       <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="2">
         <v>159176</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="I4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2">
         <v>67.11</v>
       </c>
       <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="2">
         <v>124877</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="I5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2">
         <v>53.07</v>
       </c>
       <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="2">
         <v>122613</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="I6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2">
         <v>37.69</v>
       </c>
       <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="2">
         <v>66395</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="I7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2">
         <v>6.755</v>
       </c>
       <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="2">
         <v>49866</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="I8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E9" s="2">
         <v>520.86</v>
       </c>
       <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="2">
         <v>422285</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2656,32 +2917,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2692,13 +2974,34 @@
       <c r="E2" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1743</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2709,22 +3012,64 @@
       <c r="E3" s="2">
         <v>350000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1743</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1743</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="2">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2742,16 +3087,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2759,16 +3104,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2776,16 +3121,16 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱文彥_2012-04-30_財產申報表_tmpa1171.xlsx
+++ b/legislator/property/output/normal/邱文彥_2012-04-30_財產申報表_tmpa1171.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -361,25 +361,25 @@
     <t>無法估價</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
     <t>富邦人壽靈活理財變額保險乙型</t>
   </si>
   <si>
-    <t>保險期間終身保險費月繳金額5000元。</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
     <t>南山新增值分红養老壽險</t>
   </si>
   <si>
-    <t>保險期間25年保險費年繳金額53500元。</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -3079,49 +3079,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1743</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>118</v>
@@ -3131,6 +3167,24 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1743</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
